--- a/MTP_TEST_SHEET/FNL_test_cases_v2.xlsx
+++ b/MTP_TEST_SHEET/FNL_test_cases_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lollal\Documents\Katalon\V2_Visual_test\active-testing-v2\MTP_TEST_SHEET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E86D120-5B8A-406B-83DB-B54167995ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724B5361-131F-41A8-AA4D-DC372C6C6242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4CA04EDA-5F88-F44F-AED6-BB3F5A70B725}"/>
   </bookViews>
@@ -2105,7 +2105,7 @@
     <t>disease_MONDO_0016691_top_gene_disease_gtex_diff_exp_cgc_pmtl_gene_up_and_down_reg_rank_box_false</t>
   </si>
   <si>
-    <t>https://moleculartargets-dev.ccdi.cancer.gov</t>
+    <t>https://moleculartargets-qa.ccdi.cancer.gov</t>
   </si>
 </sst>
 </file>
@@ -2496,8 +2496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75834439-9ED5-FB45-BCDD-3D4F0732EC1C}">
   <dimension ref="A1:C344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6293,8 +6293,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{6F3B6A76-707C-4E5E-83E2-4A45E127A022}"/>
-    <hyperlink ref="A3:A344" r:id="rId2" display="https://moleculartargets-dev.ccdi.cancer.gov" xr:uid="{4A0432BB-6628-4E8A-824D-B416D5C83637}"/>
+    <hyperlink ref="A2" r:id="rId1" tooltip="https://moleculartargets-qa.ccdi.cancer.gov/" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{F60FA5D6-2163-40E5-9579-C73684D8E0DE}"/>
+    <hyperlink ref="A3:A344" r:id="rId2" tooltip="https://moleculartargets-qa.ccdi.cancer.gov/" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{29AE5FAE-012C-4DBC-BDC4-9724C8210DAB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MTP_TEST_SHEET/FNL_test_cases_v2.xlsx
+++ b/MTP_TEST_SHEET/FNL_test_cases_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lollal\Documents\Katalon\V2_Visual_test\active-testing-v2\MTP_TEST_SHEET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724B5361-131F-41A8-AA4D-DC372C6C6242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61B426B-8B01-449B-B72E-069FD78E3121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4CA04EDA-5F88-F44F-AED6-BB3F5A70B725}"/>
   </bookViews>
@@ -2494,10 +2494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75834439-9ED5-FB45-BCDD-3D4F0732EC1C}">
-  <dimension ref="A1:C344"/>
+  <dimension ref="A1:D344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A344"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2859,7 +2859,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>689</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>689</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>689</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>689</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>689</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>689</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>689</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>689</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>689</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>689</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>689</v>
       </c>
@@ -2979,8 +2979,11 @@
       <c r="C43" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>689</v>
       </c>
@@ -2991,7 +2994,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>689</v>
       </c>
@@ -3002,7 +3005,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>689</v>
       </c>
@@ -3013,7 +3016,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>689</v>
       </c>
@@ -3024,7 +3027,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>689</v>
       </c>
@@ -3035,7 +3038,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>689</v>
       </c>
@@ -3045,8 +3048,11 @@
       <c r="C49" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>689</v>
       </c>
@@ -3057,7 +3063,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>689</v>
       </c>
@@ -3068,7 +3074,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>689</v>
       </c>
@@ -3079,7 +3085,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>689</v>
       </c>
@@ -3090,7 +3096,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>689</v>
       </c>
@@ -3101,7 +3107,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>689</v>
       </c>
@@ -3112,7 +3118,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>689</v>
       </c>
@@ -3123,7 +3129,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>689</v>
       </c>
@@ -3134,7 +3140,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>689</v>
       </c>
@@ -3145,7 +3151,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>689</v>
       </c>
@@ -3156,7 +3162,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>689</v>
       </c>
@@ -3167,7 +3173,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>689</v>
       </c>
@@ -3178,7 +3184,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>689</v>
       </c>
@@ -3189,7 +3195,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>689</v>
       </c>
@@ -3200,7 +3206,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>689</v>
       </c>

--- a/MTP_TEST_SHEET/FNL_test_cases_v2.xlsx
+++ b/MTP_TEST_SHEET/FNL_test_cases_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lollal\Documents\Katalon\V2_Visual_test\active-testing-v2\MTP_TEST_SHEET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61B426B-8B01-449B-B72E-069FD78E3121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E972F8B-6374-4A1C-968B-81986A2DE624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4CA04EDA-5F88-F44F-AED6-BB3F5A70B725}"/>
   </bookViews>
@@ -2105,7 +2105,7 @@
     <t>disease_MONDO_0016691_top_gene_disease_gtex_diff_exp_cgc_pmtl_gene_up_and_down_reg_rank_box_false</t>
   </si>
   <si>
-    <t>https://moleculartargets-qa.ccdi.cancer.gov</t>
+    <t>https://moleculartargets-stage.ccdi.cancer.gov</t>
   </si>
 </sst>
 </file>
@@ -2496,13 +2496,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75834439-9ED5-FB45-BCDD-3D4F0732EC1C}">
   <dimension ref="A1:D344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.83203125" customWidth="1"/>
+    <col min="1" max="1" width="40.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="165" customWidth="1"/>
     <col min="3" max="3" width="64.83203125" customWidth="1"/>
   </cols>
@@ -6299,8 +6299,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" tooltip="https://moleculartargets-qa.ccdi.cancer.gov/" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{F60FA5D6-2163-40E5-9579-C73684D8E0DE}"/>
-    <hyperlink ref="A3:A344" r:id="rId2" tooltip="https://moleculartargets-qa.ccdi.cancer.gov/" display="https://moleculartargets-qa.ccdi.cancer.gov/" xr:uid="{29AE5FAE-012C-4DBC-BDC4-9724C8210DAB}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{F60FA5D6-2163-40E5-9579-C73684D8E0DE}"/>
+    <hyperlink ref="A3:A344" r:id="rId2" display="https://moleculartargets-stage.ccdi.cancer.gov" xr:uid="{2AFB0997-EF16-48CA-9A97-F304DB5FB507}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
